--- a/docs/System_Test_Report_template.xlsx
+++ b/docs/System_Test_Report_template.xlsx
@@ -1,17 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278BF62C-B7B5-421C-A8F6-1C7C6BF812F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overall Test Report" sheetId="2" r:id="rId1"/>
     <sheet name="Test Cases &amp; Results" sheetId="1" r:id="rId2"/>
     <sheet name="Enums" sheetId="3" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -20,6 +21,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -83,25 +85,46 @@
     <t>Low Impact</t>
   </si>
   <si>
-    <t>Test that the water heater is activated if the water temperature is &lt; 100 Deg C</t>
-  </si>
-  <si>
-    <t>Water temperature is &lt; 100 Deg C</t>
-  </si>
-  <si>
-    <t>From the LCD main menu, select the option "Black Coffee"</t>
-  </si>
-  <si>
-    <t>-Heating element is activated when water temperature is &lt; 100 Deg C</t>
-  </si>
-  <si>
     <t>REQ-06</t>
+  </si>
+  <si>
+    <t>REQ-05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test that if password 1234 is enter lcd display </t>
+  </si>
+  <si>
+    <t>Password mus be empty</t>
+  </si>
+  <si>
+    <t>user key in 1234 into keypad</t>
+  </si>
+  <si>
+    <t>LCD displays "Access granted whe  password enetered correclty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test that if password 2102 is enter lcd display </t>
+  </si>
+  <si>
+    <t>password mus be empty</t>
+  </si>
+  <si>
+    <t>user key in 2102 into keypad</t>
+  </si>
+  <si>
+    <t>lCD displays "Access denied"</t>
+  </si>
+  <si>
+    <t>LCD displays "Access granted"</t>
+  </si>
+  <si>
+    <t>LCD displays "Access denied" when  password enetered correclty</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -311,7 +334,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -565,7 +587,6 @@
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
     <c:extLst>
       <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
         <c16r3:dataDisplayOptions16>
@@ -573,6 +594,7 @@
         </c16r3:dataDisplayOptions16>
       </c:ext>
     </c:extLst>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
     <a:solidFill>
@@ -1283,6 +1305,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1318,6 +1357,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1493,19 +1549,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C6"/>
   <sheetViews>
     <sheetView zoomScale="129" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1514,7 +1570,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" s="7" t="s">
         <v>1</v>
       </c>
@@ -1523,7 +1579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B5" s="8" t="s">
         <v>2</v>
       </c>
@@ -1532,7 +1588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B6" s="9" t="s">
         <v>3</v>
       </c>
@@ -1549,28 +1605,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.7109375" customWidth="1"/>
-    <col min="8" max="8" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="28.1796875" customWidth="1"/>
+    <col min="7" max="7" width="21.7265625" customWidth="1"/>
+    <col min="8" max="8" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" customWidth="1"/>
+    <col min="10" max="10" width="18.54296875" customWidth="1"/>
+    <col min="11" max="11" width="12.54296875" style="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1602,7 +1658,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" ht="57" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2">
         <v>1</v>
       </c>
@@ -1610,48 +1666,62 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I3" s="15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="46" x14ac:dyDescent="0.35">
       <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
       <c r="K4" s="12" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B20" si="0">B4+1</f>
         <v>3</v>
@@ -1668,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B6" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1685,7 +1755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1702,7 +1772,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B8" s="2">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1719,7 +1789,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B9" s="2">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1736,7 +1806,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B10" s="2">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1753,7 +1823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B11" s="2">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1770,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B12" s="2">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1787,7 +1857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B13" s="2">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1804,7 +1874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B14" s="2">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -1821,7 +1891,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B15" s="2">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1838,7 +1908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B16" s="2">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1855,7 +1925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B17" s="2">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1872,7 +1942,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B18" s="2">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1889,7 +1959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B19" s="2">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1906,7 +1976,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B20" s="2">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1923,7 +1993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B21" s="2">
         <f t="shared" ref="B21:B22" si="1">B20+1</f>
         <v>19</v>
@@ -1940,7 +2010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.35">
       <c r="B22" s="2">
         <f t="shared" si="1"/>
         <v>20</v>
@@ -1983,13 +2053,13 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000000000000}">
           <x14:formula1>
             <xm:f>Enums!$B$8:$B$10</xm:f>
           </x14:formula1>
           <xm:sqref>E3:E5</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0100-000001000000}">
           <x14:formula1>
             <xm:f>Enums!$B$2:$B$4</xm:f>
           </x14:formula1>
@@ -2002,41 +2072,41 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>17</v>
       </c>
@@ -2048,21 +2118,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E81D8C8DDAE8BD44A422697963F06C45" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6816e004dbb89c674e51f5647972552">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b02348f-b4e3-458c-83fc-9e90db0f8029" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6418ca14ac9ee17b8bbf6df78e0c223" ns2:_="">
     <xsd:import namespace="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
@@ -2220,31 +2275,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DB72C7-DF0B-4E18-8174-00AB852E6FB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{859B513B-8BED-4B59-B224-E0A2C6173D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCDB6385-31B2-4574-9AA4-BF13B563A4E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2260,4 +2306,28 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{859B513B-8BED-4B59-B224-E0A2C6173D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DB72C7-DF0B-4E18-8174-00AB852E6FB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/docs/System_Test_Report_template.xlsx
+++ b/docs/System_Test_Report_template.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{278BF62C-B7B5-421C-A8F6-1C7C6BF812F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CF5173-E3C7-475E-99A0-00FECFC386E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10200" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t>Total Test Cases</t>
   </si>
@@ -85,15 +85,9 @@
     <t>Low Impact</t>
   </si>
   <si>
-    <t>REQ-06</t>
-  </si>
-  <si>
     <t>REQ-05</t>
   </si>
   <si>
-    <t xml:space="preserve">Test that if password 1234 is enter lcd display </t>
-  </si>
-  <si>
     <t>Password mus be empty</t>
   </si>
   <si>
@@ -103,22 +97,52 @@
     <t>LCD displays "Access granted whe  password enetered correclty</t>
   </si>
   <si>
-    <t xml:space="preserve">Test that if password 2102 is enter lcd display </t>
-  </si>
-  <si>
     <t>password mus be empty</t>
   </si>
   <si>
     <t>user key in 2102 into keypad</t>
   </si>
   <si>
-    <t>lCD displays "Access denied"</t>
-  </si>
-  <si>
     <t>LCD displays "Access granted"</t>
   </si>
   <si>
-    <t>LCD displays "Access denied" when  password enetered correclty</t>
+    <t>REQ-14</t>
+  </si>
+  <si>
+    <t>REQ-15</t>
+  </si>
+  <si>
+    <t>High impact</t>
+  </si>
+  <si>
+    <t>Test that if password 1234 is enter lcd displays "Access granted"</t>
+  </si>
+  <si>
+    <t>Test that if password 2102 lcd displays "Access denied"</t>
+  </si>
+  <si>
+    <t>Test ID of keycard matches with id in database</t>
+  </si>
+  <si>
+    <t>The swtch aka the lock must be locked.</t>
+  </si>
+  <si>
+    <t>User tap correct keycard</t>
+  </si>
+  <si>
+    <t>LCD displays "Access denied"</t>
+  </si>
+  <si>
+    <t>LCD dispays "Access granted"</t>
+  </si>
+  <si>
+    <t>LCD displays "Access denied" when  password enetered correctly</t>
+  </si>
+  <si>
+    <t>LCD displays "Access granted" when  keycard is tapped</t>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
@@ -509,13 +533,13 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>19</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1576,7 +1600,7 @@
       </c>
       <c r="C4" s="10">
         <f>COUNTIF('Test Cases &amp; Results'!K3:K72, "Pass")</f>
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.35">
@@ -1594,7 +1618,7 @@
       </c>
       <c r="C6" s="10">
         <f>COUNTIF('Test Cases &amp; Results'!K3:K72, "Not Tested")</f>
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1608,8 +1632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="136" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="136" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1666,25 +1690,25 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="15" t="s">
         <v>21</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>23</v>
       </c>
       <c r="K3" s="12" t="s">
         <v>14</v>
@@ -1697,45 +1721,59 @@
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="34.5" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <f t="shared" ref="B5:B20" si="0">B4+1</f>
         <v>3</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>36</v>
+      </c>
       <c r="K5" s="12" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.35">
@@ -2118,6 +2156,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E81D8C8DDAE8BD44A422697963F06C45" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b6816e004dbb89c674e51f5647972552">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2b02348f-b4e3-458c-83fc-9e90db0f8029" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6418ca14ac9ee17b8bbf6df78e0c223" ns2:_="">
     <xsd:import namespace="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
@@ -2275,22 +2328,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DB72C7-DF0B-4E18-8174-00AB852E6FB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{859B513B-8BED-4B59-B224-E0A2C6173D25}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BCDB6385-31B2-4574-9AA4-BF13B563A4E3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2306,28 +2368,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{859B513B-8BED-4B59-B224-E0A2C6173D25}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69DB72C7-DF0B-4E18-8174-00AB852E6FB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="2b02348f-b4e3-458c-83fc-9e90db0f8029"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>